--- a/src/data/Track Import Test.xlsx
+++ b/src/data/Track Import Test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil.Aldridge\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil.Aldridge\OneDrive - BJSS Ltd\Documents\Curve-Task\src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0195D0-1AF5-4EFB-87C1-5204CCF7BD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4520DE40-AACD-4F29-ACC8-006BC01BED11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>aliases11 ; aliases22</t>
+  </si>
+  <si>
+    <t>Track 3</t>
+  </si>
+  <si>
+    <t>Remove$ characters</t>
+  </si>
+  <si>
+    <t>Track 4</t>
   </si>
 </sst>
 </file>
@@ -448,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -536,6 +545,19 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
